--- a/ApolloQA/Data/RatingManual/GA/VA00052.BaseRateFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00052.BaseRateFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00052.BaseRateFactors" sheetId="1" r:id="Re0d283cf13a6447e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00052.BaseRateFactors" sheetId="1" r:id="R5a109faaeece4243"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,146 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Base Rate Factor</x:v>
+        <x:v>Class Code</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Class Code Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>59.93</x:v>
+        <x:v>803</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9260</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1667</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>813</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9754</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>814</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0867</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6007</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>825</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9194</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2256</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6890</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6957</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9066</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9812</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9721</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1893</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9560</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>862</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9710</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.6299</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
